--- a/biology/Botanique/Astrocaryum_vulgare/Astrocaryum_vulgare.xlsx
+++ b/biology/Botanique/Astrocaryum_vulgare/Astrocaryum_vulgare.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Astrocaryum vulgare est une espèce de plantes à fleurs de la famille des Arecaceae (les palmiers), de la sous-famille des Arecoideae, de la tribu des Cocoseae et de la sous-tribu des Bactridinae. A. vulgare semble originaire du nord-ouest de l'Amérique du Sud. Il a été très anciennement cultivé par les Amérindiens en Guyane. Il pousse en touffe dans les savanes hautes ou en forêt côtière sur sol sain, sableux de préférence. La présence de A. vulgare dans un site éloigné de la côte témoigne généralement d'un ancien village disparu.
 Son fruit, comestible, est l'awara. Les utilisations de l'awara, palmier domestique, sont nombreuses. La pulpe du fruit, riche en vitamine A, E, tocophérols, acides gras essentiels: oméga 6 et 9, peut être consommée crue ou entrer dans la confection du fameux "bouillon d'awara" qui tient une grande place dans la tradition guyanaise. On peut également retirer de la pulpe une huile comestible (huile orange à rouge). Le noyau très dur contient une amande blanche d'où l'on extrait le beurre d'awara par extraction à froid (beurre blanc) et avec la même amande on obtient une huile appelé en créole guyanais "tchotcho" par extraction à chaud (huile noire), graisse alimentaire fine. Par incision des spadices avant la floraison, on recueille une sève sucrée qui donne le vin de palme par fermentation. Le cœur du palmier est également un très bon comestible. Enfin, le bois d'awara, noir, dur et durable, est utilisé dans la construction des villages amérindiens ou boni[réf. nécessaire].
@@ -512,9 +524,11 @@
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En Guyane, il est connu sous le nom de palmyé wara, awara, wara (Créole), awara, awala (Kali'na), wahatwi (Palikur), dzawala (Teko), awala (Wayana), awala (Wayãpi) ou awaa (Aluku). Au Brésil, surtout dans la forêt amazonienne, il est aussi appelé tucum ou tucumã-do-Pará[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Guyane, il est connu sous le nom de palmyé wara, awara, wara (Créole), awara, awala (Kali'na), wahatwi (Palikur), dzawala (Teko), awala (Wayana), awala (Wayãpi) ou awaa (Aluku). Au Brésil, surtout dans la forêt amazonienne, il est aussi appelé tucum ou tucumã-do-Pará.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Usages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chez les créoles guyanais, les racines servent à confectionner un remède contre les furoncles. On fabrique à partir de ses amandes fermentées et grillées une huile épaisse (huile de tcho-tcho) employée pour soigner les furoncles et soulager les maux de dent, favoriser la transpiration chez les personnes fiévreuses, servir de vermifuge chez les enfants. La chair d'awara sert à confectionner un des plats traditionnels créoles guyanais parmi les plus populaires : le bouillon d'awara. On trouve des usages très similaires chez les populations Palikur[2].
-Les huiles tirées de sa pulpe et des amandes sont comestibles. Pulpe et amandes peuvent être consommées crues[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chez les créoles guyanais, les racines servent à confectionner un remède contre les furoncles. On fabrique à partir de ses amandes fermentées et grillées une huile épaisse (huile de tcho-tcho) employée pour soigner les furoncles et soulager les maux de dent, favoriser la transpiration chez les personnes fiévreuses, servir de vermifuge chez les enfants. La chair d'awara sert à confectionner un des plats traditionnels créoles guyanais parmi les plus populaires : le bouillon d'awara. On trouve des usages très similaires chez les populations Palikur.
+Les huiles tirées de sa pulpe et des amandes sont comestibles. Pulpe et amandes peuvent être consommées crues.
 </t>
         </is>
       </c>
@@ -575,11 +591,13 @@
           <t>Histoire naturelle</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1741, Barrère écrit sur cette plante ainsi[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1741, Barrère écrit sur cette plante ainsi :
 « PALMA dactylifera, aculeata, fructu corallina major. Plum. gen. Pindora Marcg. Aouara. Le fruit d’Aoura contient beaucoup d'huile, qu'on tire ordinairement par décoction, &amp; qui est proprement l’huile de Palme des Iſles. Je m'en ſuis ſervi quelquefois avec succès dans la douleur des coliques &amp; dans celle des oreilles. Quand on nétoye les Savanes, on ménage les Aouaras, à cause du fruit qui engraiſſe beaucoup les beſtiaux. »
-En 1775, le botaniste Aublet rapporte ceci[5] : 
+En 1775, le botaniste Aublet rapporte ceci : 
 « PALMA dactylifera, aculeata ; fructu corallino, major. Plum.Gen.3.
 AOUARA des Caraïbes.
 Ce Palmier eſt très commun dans l'île de Caïenne &amp; dans la Guiane, principalement dans les ſavanes ou prairies. 
@@ -631,7 +649,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(la) Karl Friedrich Philipp von Martius, « 17. ASTROCARYUM VULGARE. MART. », Flora Brasiliensis, vol. 85(2),‎ 1881, p. 381-382 (DOI 10.5962/bhl.title.454, lire en ligne)
 (la) Karl Friedrich Philipp von Martius, « 5. ASTROCARYUM VULGARE. Tab. 62–63 », Historia Naturalis Palmarum, vol. 2,‎ 1824, p. 74 (DOI 10.5962/bhl.title.506, lire en ligne)
